--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -53,7 +53,7 @@
     <t>run npx -y prettier@3.4.2</t>
   </si>
   <si>
-    <t>546f34cb1fbb09896491b147b86c1635ca79f4f5a91ce58882925d8fc43b3354  -</t>
+    <t>2752260ca9df5398899b9c1eaaed51fc70233097cd230c07d69c7de0713aab2f</t>
   </si>
   <si>
     <t>GA1.4</t>
@@ -128,7 +128,7 @@
     <t>Enter the raw Github URL of email.json so we can verify it</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Tusharisme/tds/refs/heads/main/email.json</t>
+    <t>https://raw.githubusercontent.com/kohliaryan/TDS-test-repo/main/email.json</t>
   </si>
   <si>
     <t>GA1.14</t>
@@ -152,7 +152,7 @@
     <t>What does running grep . * | LC_ALL=C sort | sha256sum in bash on that folder show?</t>
   </si>
   <si>
-    <t>3bdcc605865cdade0ff10917798d0e0eb809be88f843d421750714f3cea5f235</t>
+    <t>199822a0b86cd5619af3121436d5605526ba7852e84dcab9d64fec020c00f5b9</t>
   </si>
   <si>
     <t>GA1.17</t>
@@ -245,7 +245,7 @@
     <t>What is the GitHub Pages URL</t>
   </si>
   <si>
-    <t>https://tusharisme.github.io/tds_work</t>
+    <t>https://kohliaryan.github.io/tds-published-page/</t>
   </si>
   <si>
     <t>GA2.4</t>
@@ -266,7 +266,7 @@
     <t>What is the Vercel URL</t>
   </si>
   <si>
-    <t>https://api-git-main-telvinvargheses-projects.vercel.app/api</t>
+    <t>https://marks-ihmm6vams-aryan-kohlis-projects-c7d8a4b2.vercel.app/api</t>
   </si>
   <si>
     <t>GA2.7</t>
@@ -275,7 +275,7 @@
     <t>Trigger the action and make sure it is the most recent action.</t>
   </si>
   <si>
-    <t>https://github.com/Telvinvarghese/Test</t>
+    <t>https://github.com/kohliaryan/github-actions</t>
   </si>
   <si>
     <t>GA2.8</t>
@@ -284,7 +284,7 @@
     <t>What is the Docker image URL</t>
   </si>
   <si>
-    <t>https://hub.docker.com/repository/docker/tushar2k5/my_image/general</t>
+    <t>https://hub.docker.com/repository/docker/mraryankohli/my-python-app/general</t>
   </si>
   <si>
     <t>GA2.9</t>
@@ -699,7 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>455</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>TASK</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Run this program on Google Colab</t>
+  </si>
+  <si>
+    <t>cadf0</t>
   </si>
   <si>
     <t>GA2.5</t>
@@ -1338,16 +1341,16 @@
       <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="7">
-        <v>22557</v>
+      <c r="C23" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7">
         <v>6378</v>
@@ -1355,76 +1358,76 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7">
         <v>47</v>
@@ -1432,87 +1435,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="7">
         <v>260</v>
@@ -1520,43 +1523,43 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="9">
         <v>10.1399458</v>
@@ -1564,43 +1567,43 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="7">
         <v>29658</v>
@@ -1608,21 +1611,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" s="9">
         <v>0.475186494865336</v>
@@ -1630,10 +1633,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="7">
         <v>22</v>
@@ -1641,10 +1644,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="7">
         <v>173</v>
@@ -1652,10 +1655,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" s="7">
         <v>10930</v>
@@ -1663,10 +1666,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="7">
         <v>10829</v>
@@ -1674,10 +1677,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="7">
         <v>53117</v>
@@ -1685,10 +1688,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" s="7">
         <v>27925</v>
@@ -1696,32 +1699,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>55</v>
